--- a/data/DISH - RESULTS OF OPERATIONS.xlsx
+++ b/data/DISH - RESULTS OF OPERATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehabnaeem/Documents/Coding-Projects/customer-analytics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehabnaeem/Developer/customer-analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CFE1F8-F1E3-444F-9E2F-2D1397F11425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E43995-A96D-944C-97B7-BC61EE8CB4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{6E12EA3C-EABC-E34B-8E19-D352840EA5AD}"/>
   </bookViews>
@@ -585,8 +585,8 @@
   <dimension ref="A1:CG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC24" sqref="CC24"/>
+      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CD5" sqref="CD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,6 +1379,10 @@
         <f>128541+6635</f>
         <v>135176</v>
       </c>
+      <c r="BZ4" s="1">
+        <f>344250-SUM(CA4:CC4)</f>
+        <v>116174</v>
+      </c>
       <c r="CA4" s="1">
         <f>82078+13698</f>
         <v>95776</v>
@@ -1650,6 +1654,10 @@
       </c>
       <c r="BY5" s="1">
         <v>214439</v>
+      </c>
+      <c r="BZ5" s="1">
+        <f>477418-SUM(CA5:CC5)</f>
+        <v>179165</v>
       </c>
       <c r="CA5" s="1">
         <v>130038</v>
@@ -1777,6 +1785,9 @@
       </c>
       <c r="BY7" s="1">
         <v>51000</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>252000</v>
       </c>
       <c r="CA7" s="1">
         <v>84000</v>
@@ -2443,7 +2454,10 @@
         <f>BY7/BY16/1000</f>
         <v>0.20399999999999999</v>
       </c>
-      <c r="BZ12" s="14"/>
+      <c r="BZ12" s="15">
+        <f>BZ7/BZ16/1000-SUM(CA12:CC12)</f>
+        <v>0.19530303030303031</v>
+      </c>
       <c r="CA12" s="15">
         <f>CA7/CA16/1000</f>
         <v>0.28000000000000003</v>
@@ -3498,6 +3512,9 @@
       </c>
       <c r="BY16">
         <v>250</v>
+      </c>
+      <c r="BZ16">
+        <v>330</v>
       </c>
       <c r="CA16">
         <v>300</v>
@@ -3802,7 +3819,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="BJ12 BF12 BB12 BN12 BR12 BV12" formula="1"/>
+    <ignoredError sqref="BJ12 BF12 BB12 BN12 BR12 BV12 BZ12" formula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
